--- a/output/total_result.xlsx
+++ b/output/total_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="13920"/>
+    <workbookView windowWidth="14450" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>pofb作为评价指标</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>论文代码</t>
+  </si>
+  <si>
+    <t>DPNN</t>
   </si>
   <si>
     <t>ant-1.3-&gt;camel-1.6</t>
@@ -257,14 +260,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,13 +738,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,126 +756,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2265,6 +2260,1561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>图表标题</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>随机森林</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.2984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214141414141414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.121212121212121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.317665130568356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.295917001338688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0868686868686868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.445555555555556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.219191919191919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.257478632478633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.170707070707071</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.362608695652174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.116161616161616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.230357142857143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.245333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.347619047619048</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.241533333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.389223560910308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.381466666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.288034188034188</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.342533333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.451904761904762</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3612</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21517094017094</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.277133333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.539420289855072</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.335637480798771</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.235714285714286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2904953145917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.207142857142857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.342735042735043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.232738095238095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.414444444444445</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.181547619047619</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.198504273504274</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.648115942028985</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.252380952380952</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.300066934404284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31689708141321</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.294871794871795</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32258064516129</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.374444444444445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.267741935483871</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.201282051282051</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.321505376344086</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.694782608695652</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.256221198156682</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.447863247863248</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.320013386880857</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.695238095238095</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.530522088353414</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.252350427350427</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.309973226238286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.724637681159421</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.386746987951807</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.480793650793651</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.458119658119658</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.282905982905983</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.290598290598291</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.490724637681159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.223931623931624</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.246367521367521</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.713623188405797</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.461428571428572</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.604057971014493</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.216880341880342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>决策树</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.210533333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.194949494949495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.219642857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.107070707070707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.295698924731183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.226262626262626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.174431057563588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.184848484848485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22991452991453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.170707070707071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.188888888888889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.196969696969697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.187606837606838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.216161616161616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.126376811594203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.108080808080808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.245238095238095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1514</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.273732718894009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.210466666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.236947791164659</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.178632478632479</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.219666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.257142857142857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.308333333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18482905982906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1742</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.271304347826087</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.102266666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.286635944700461</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.182142857142857</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.129718875502008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17797619047619</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.228205128205128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.247619047619048</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0988888888888889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.217857142857143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.161965811965812</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.171428571428571</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.186086956521739</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.317261904761905</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.130321285140562</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.334101382488479</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18974358974359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.288325652841782</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.206190476190476</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.272503840245776</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.217521367521368</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.304301075268817</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.430144927536232</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.251612903225806</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.426495726495727</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.129718875502008</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.592857142857143</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.452610441767068</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.276068376068376</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.123293172690763</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.736811594202898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.190696117804552</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.128571428571429</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.358119658119658</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.224145299145299</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.117094017094017</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.107826086956522</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.193162393162393</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.270940170940171</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.142698412698413</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.387246376811594</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.116666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.158550724637681</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.210470085470085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>svr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$D$2:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.276497695852535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.272727272727272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.419678714859438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.487179487179487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.242424242424242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.576190476190476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.282051282051282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.242424242424242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68695652173913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.196428571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.248847926267281</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.358</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.514056224899598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.366</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.410256410256411</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.368</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.671428571428571</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.338</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.294871794871795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.695652173913043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.356</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.248847926267281</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.160714285714286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.506024096385542</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.178571428571428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.435897435897436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.232142857142857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.196428571428571</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.294871794871795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.196428571428571</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.747826086956522</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.483935742971887</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.564102564102564</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.271889400921659</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.271889400921659</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.294871794871795</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.230414746543779</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.713043478260869</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.528112449799197</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.69047619047619</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.485943775100402</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.269230769230769</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.534136546184739</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.721739130434783</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.532128514056225</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.282051282051282</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.461538461538462</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.739130434782609</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.487179487179487</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.243589743589744</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.671428571428571</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.660869565217391</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.709523809523809</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.730434782608696</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.262820512820513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>论文代码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$E$2:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.222823529411765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.210953346855984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.183823529411765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.210953346855984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.184631077864672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.202839756592292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.244582043343653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.206896551724138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.221719457013575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.206896551724138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.219739819004525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.212981744421907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.207658902487169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.200811359026369</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2852680895367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.221095334685598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.229058823529412</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.154029241754505</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.211058823529412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.166068111455108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.190823529411765</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.179487179487179</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.141968325791855</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.183971575207264</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.197813638729828</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.190823529411765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.155049302958178</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.178571428571429</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21312693498452</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.196078431372549</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.180672268907563</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.242364253393665</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.175420168067227</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.203711014607185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.17436974789916</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.244664237376367</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.177521008403361</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.187739938080495</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.152329139748385</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.191553544494721</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.161849710982659</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.166855203619909</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15028901734104</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.191077773391236</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.161509690581435</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.21186881832379</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.154029241754505</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.177213622291022</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.137443438914027</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.164582043343653</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.18002368732728</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.192941176470588</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.186361270171785</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.167430340557275</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.143382352941176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.182392420055271</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.187028657616893</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.194169703279542</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.173453996983409</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.180418476115278</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.154977375565611</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.186881832378969</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.142533936651584</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.223841749089016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.181602842479274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DPNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$F$2:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.3772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.247474747474747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253535353535353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25050505050505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.237373737373737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.441880341880342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.246464646464646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.680793650793651</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.229292929292929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.267307692307692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.246464646464646</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72695652173913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25050505050505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3754</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.378066666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.454700854700855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3754</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.679047619047619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.379133333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.258974358974359</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.378333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.730144927536232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.376933333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.436752136752137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.682063492063492</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.265384615384615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.729855072463768</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.446153846153846</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.678730158730159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.263888888888889</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.729855072463768</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.455555555555556</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.676190476190476</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.267307692307692</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.728115942028986</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.162650602409639</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.677460317460317</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.452136752136752</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.266025641025641</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.457264957264957</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.728985507246377</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.445299145299145</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.265384615384615</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.678888888888889</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.727826086956522</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.679206349206349</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.730434782608696</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.263247863247863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="688278201"/>
+        <c:axId val="783928128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="688278201"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783928128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783928128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688278201"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" dist="37357" dir="2700000" sx="0" sy="0" rotWithShape="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2273,6 +3823,43 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2821,20 +4408,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151765</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2842,12 +4945,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6224270" y="786765"/>
+        <a:off x="7856855" y="969645"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628015</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7490460" y="7815580"/>
+        <a:ext cx="4825365" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3330,23 +5463,215 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="【1】">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0C0E1F"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FEFFFF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81FF"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="16CC8A"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="FFC619"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FF8041"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="F95F5F"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="A15CFF"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="304FFE"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="492067"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="自定义 2">
+    <a:majorFont>
+      <a:latin typeface="微软雅黑"/>
+      <a:ea typeface="微软雅黑"/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="微软雅黑"/>
+      <a:ea typeface="微软雅黑"/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E44" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.9727272727273" customWidth="1"/>
     <col min="2" max="2" width="12.8181818181818"/>
     <col min="5" max="5" width="24.5363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3362,10 +5687,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0.2984</v>
@@ -3376,13 +5704,16 @@
       <c r="D2" s="1">
         <v>0.348</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.222823529411765</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
+      <c r="F2" s="1">
+        <v>0.3772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.214141414141414</v>
@@ -3393,13 +5724,16 @@
       <c r="D3" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.210953346855984</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <v>0.247474747474747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>0.166666666666667</v>
@@ -3410,13 +5744,16 @@
       <c r="D4" s="1">
         <v>0.285714285714286</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.183823529411765</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0.121212121212121</v>
@@ -3427,13 +5764,16 @@
       <c r="D5" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.210953346855984</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <v>0.253535353535353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>0.317665130568356</v>
@@ -3444,13 +5784,16 @@
       <c r="D6" s="1">
         <v>0.276497695852535</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.184631077864672</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>0.0888888888888889</v>
@@ -3461,13 +5804,16 @@
       <c r="D7" s="1">
         <v>0.272727272727272</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.202839756592292</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <v>0.25050505050505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>0.295917001338688</v>
@@ -3478,13 +5824,16 @@
       <c r="D8" s="1">
         <v>0.419678714859438</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.244582043343653</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>0.181818181818182</v>
@@ -3495,13 +5844,16 @@
       <c r="D9" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.206896551724138</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <v>0.237373737373737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>0.384615384615385</v>
@@ -3512,13 +5864,16 @@
       <c r="D10" s="1">
         <v>0.487179487179487</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.221719457013575</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <v>0.441880341880342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>0.0868686868686868</v>
@@ -3529,13 +5884,16 @@
       <c r="D11" s="1">
         <v>0.242424242424242</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.206896551724138</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <v>0.246464646464646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>0.445555555555556</v>
@@ -3546,13 +5904,16 @@
       <c r="D12" s="1">
         <v>0.576190476190476</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.219739819004525</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <v>0.680793650793651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>0.219191919191919</v>
@@ -3563,13 +5924,16 @@
       <c r="D13" s="1">
         <v>0.333333333333333</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.212981744421907</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>0.229292929292929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>0.257478632478633</v>
@@ -3580,13 +5944,16 @@
       <c r="D14" s="1">
         <v>0.282051282051282</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.207658902487169</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <v>0.267307692307692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>0.170707070707071</v>
@@ -3597,13 +5964,16 @@
       <c r="D15" s="1">
         <v>0.242424242424242</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.200811359026369</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>0.246464646464646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>0.362608695652174</v>
@@ -3614,13 +5984,16 @@
       <c r="D16" s="1">
         <v>0.68695652173913</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.2852680895367</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
+      <c r="F16" s="1">
+        <v>0.72695652173913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>0.116161616161616</v>
@@ -3631,13 +6004,16 @@
       <c r="D17" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.221095334685598</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>0.25050505050505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>0.230357142857143</v>
@@ -3648,13 +6024,16 @@
       <c r="D18" s="1">
         <v>0.196428571428571</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.176470588235294</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>0.245333333333333</v>
@@ -3665,13 +6044,16 @@
       <c r="D19" s="1">
         <v>0.36</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.229058823529412</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <v>0.3754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>0.347619047619048</v>
@@ -3682,13 +6064,16 @@
       <c r="D20" s="1">
         <v>0.248847926267281</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.154029241754505</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>0.241533333333333</v>
@@ -3699,13 +6084,16 @@
       <c r="D21" s="1">
         <v>0.358</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.211058823529412</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <v>0.378066666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>0.389223560910308</v>
@@ -3716,13 +6104,16 @@
       <c r="D22" s="1">
         <v>0.514056224899598</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.166068111455108</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>0.381466666666667</v>
@@ -3733,13 +6124,16 @@
       <c r="D23" s="1">
         <v>0.366</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.190823529411765</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <v>0.3798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>0.288034188034188</v>
@@ -3750,13 +6144,16 @@
       <c r="D24" s="1">
         <v>0.410256410256411</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.179487179487179</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <v>0.454700854700855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>0.342533333333333</v>
@@ -3767,13 +6164,16 @@
       <c r="D25" s="1">
         <v>0.368</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <v>0.3754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>0.451904761904762</v>
@@ -3784,13 +6184,16 @@
       <c r="D26" s="1">
         <v>0.671428571428571</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.141968325791855</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <v>0.679047619047619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>0.3612</v>
@@ -3801,13 +6204,16 @@
       <c r="D27" s="1">
         <v>0.338</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1">
+        <v>0.379133333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>0.21517094017094</v>
@@ -3818,13 +6224,16 @@
       <c r="D28" s="1">
         <v>0.294871794871795</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.183971575207264</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1">
+        <v>0.258974358974359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>0.277133333333333</v>
@@ -3835,13 +6244,16 @@
       <c r="D29" s="1">
         <v>0.382</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.204</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="1">
+        <v>0.378333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>0.539420289855072</v>
@@ -3852,13 +6264,16 @@
       <c r="D30" s="1">
         <v>0.695652173913043</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.197813638729828</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1">
+        <v>0.730144927536232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>0.164</v>
@@ -3869,13 +6284,16 @@
       <c r="D31" s="1">
         <v>0.356</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.190823529411765</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="1">
+        <v>0.376933333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>0.335637480798771</v>
@@ -3886,13 +6304,16 @@
       <c r="D32" s="1">
         <v>0.248847926267281</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.155049302958178</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>0.235714285714286</v>
@@ -3903,13 +6324,16 @@
       <c r="D33" s="1">
         <v>0.160714285714286</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.178571428571429</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>0.2904953145917</v>
@@ -3920,13 +6344,16 @@
       <c r="D34" s="1">
         <v>0.506024096385542</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.21312693498452</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>0.207142857142857</v>
@@ -3937,13 +6364,16 @@
       <c r="D35" s="1">
         <v>0.178571428571428</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0.176470588235294</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>0.342735042735043</v>
@@ -3954,13 +6384,16 @@
       <c r="D36" s="1">
         <v>0.435897435897436</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>0.196078431372549</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1">
+        <v>0.436752136752137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>0.232738095238095</v>
@@ -3971,13 +6404,16 @@
       <c r="D37" s="1">
         <v>0.232142857142857</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0.180672268907563</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>0.414444444444445</v>
@@ -3988,13 +6424,16 @@
       <c r="D38" s="1">
         <v>0.7</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>0.242364253393665</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>42</v>
+      <c r="F38" s="1">
+        <v>0.682063492063492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>0.181547619047619</v>
@@ -4005,13 +6444,16 @@
       <c r="D39" s="1">
         <v>0.196428571428571</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0.175420168067227</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>0.198504273504274</v>
@@ -4022,13 +6464,16 @@
       <c r="D40" s="1">
         <v>0.294871794871795</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>0.203711014607185</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1">
+        <v>0.265384615384615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>0.175</v>
@@ -4039,13 +6484,16 @@
       <c r="D41" s="1">
         <v>0.196428571428571</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.17436974789916</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>45</v>
+      <c r="F41" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>0.648115942028985</v>
@@ -4056,13 +6504,16 @@
       <c r="D42" s="1">
         <v>0.747826086956522</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>0.244664237376367</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1">
+        <v>0.729855072463768</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>0.252380952380952</v>
@@ -4073,13 +6524,16 @@
       <c r="D43" s="1">
         <v>0.214285714285714</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>0.177521008403361</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>0.300066934404284</v>
@@ -4090,13 +6544,16 @@
       <c r="D44" s="1">
         <v>0.483935742971887</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>0.187739938080495</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>0.31689708141321</v>
@@ -4107,13 +6564,16 @@
       <c r="D45" s="1">
         <v>0.285714285714286</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0.152329139748385</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>0.294871794871795</v>
@@ -4124,13 +6584,16 @@
       <c r="D46" s="1">
         <v>0.564102564102564</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>0.191553544494721</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1">
+        <v>0.446153846153846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>0.32258064516129</v>
@@ -4141,13 +6604,16 @@
       <c r="D47" s="1">
         <v>0.271889400921659</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>0.161849710982659</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>0.374444444444445</v>
@@ -4158,13 +6624,16 @@
       <c r="D48" s="1">
         <v>0.642857142857143</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>0.166855203619909</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1">
+        <v>0.678730158730159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>0.267741935483871</v>
@@ -4175,13 +6644,16 @@
       <c r="D49" s="1">
         <v>0.271889400921659</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0.15028901734104</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>53</v>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>0.201282051282051</v>
@@ -4192,13 +6664,16 @@
       <c r="D50" s="1">
         <v>0.294871794871795</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>0.191077773391236</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>54</v>
+      <c r="F50" s="1">
+        <v>0.263888888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>0.321505376344086</v>
@@ -4209,13 +6684,16 @@
       <c r="D51" s="1">
         <v>0.230414746543779</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0.161509690581435</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
         <v>0.694782608695652</v>
@@ -4226,13 +6704,16 @@
       <c r="D52" s="1">
         <v>0.713043478260869</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>0.21186881832379</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1">
+        <v>0.729855072463768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>0.256221198156682</v>
@@ -4243,13 +6724,16 @@
       <c r="D53" s="1">
         <v>0.285714285714286</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>0.154029241754505</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>0.447863247863248</v>
@@ -4260,13 +6744,16 @@
       <c r="D54" s="1">
         <v>0.384615384615385</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>0.176470588235294</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="1">
+        <v>0.455555555555556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>0.320013386880857</v>
@@ -4277,13 +6764,16 @@
       <c r="D55" s="1">
         <v>0.528112449799197</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>0.177213622291022</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>0.695238095238095</v>
@@ -4294,13 +6784,16 @@
       <c r="D56" s="1">
         <v>0.69047619047619</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>0.137443438914027</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="1">
+        <v>0.676190476190476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>0.530522088353414</v>
@@ -4311,13 +6804,16 @@
       <c r="D57" s="1">
         <v>0.485943775100402</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>0.164582043343653</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
         <v>0.252350427350427</v>
@@ -4328,13 +6824,16 @@
       <c r="D58" s="1">
         <v>0.269230769230769</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>0.18002368732728</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>62</v>
+      <c r="F58" s="1">
+        <v>0.267307692307692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="1">
         <v>0.309973226238286</v>
@@ -4345,13 +6844,16 @@
       <c r="D59" s="1">
         <v>0.534136546184739</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>0.192941176470588</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1">
         <v>0.724637681159421</v>
@@ -4362,13 +6864,16 @@
       <c r="D60" s="1">
         <v>0.721739130434783</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>0.186361270171785</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="1">
+        <v>0.728115942028986</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1">
         <v>0.386746987951807</v>
@@ -4379,13 +6884,16 @@
       <c r="D61" s="1">
         <v>0.532128514056225</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>0.167430340557275</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="1">
+        <v>0.162650602409639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1">
         <v>0.480793650793651</v>
@@ -4396,13 +6904,16 @@
       <c r="D62" s="1">
         <v>0.633333333333333</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>0.143382352941176</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="1">
+        <v>0.677460317460317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1">
         <v>0.458119658119658</v>
@@ -4413,13 +6924,16 @@
       <c r="D63" s="1">
         <v>0.333333333333333</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>0.176470588235294</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="1">
+        <v>0.452136752136752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
         <v>0.282905982905983</v>
@@ -4430,13 +6944,16 @@
       <c r="D64" s="1">
         <v>0.282051282051282</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>0.182392420055271</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="1">
+        <v>0.266025641025641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1">
         <v>0.290598290598291</v>
@@ -4447,13 +6964,16 @@
       <c r="D65" s="1">
         <v>0.461538461538462</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>0.187028657616893</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="1">
+        <v>0.457264957264957</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1">
         <v>0.490724637681159</v>
@@ -4464,13 +6984,16 @@
       <c r="D66" s="1">
         <v>0.739130434782609</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>0.194169703279542</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="1">
+        <v>0.728985507246377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
         <v>0.223931623931624</v>
@@ -4481,13 +7004,16 @@
       <c r="D67" s="1">
         <v>0.487179487179487</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>0.173453996983409</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="1">
+        <v>0.445299145299145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1">
         <v>0.246367521367521</v>
@@ -4498,13 +7024,16 @@
       <c r="D68" s="1">
         <v>0.243589743589744</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>0.180418476115278</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="1">
+        <v>0.265384615384615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
         <v>0.366666666666667</v>
@@ -4515,13 +7044,16 @@
       <c r="D69" s="1">
         <v>0.671428571428571</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>0.154977375565611</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="1">
+        <v>0.678888888888889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1">
         <v>0.713623188405797</v>
@@ -4532,13 +7064,16 @@
       <c r="D70" s="1">
         <v>0.660869565217391</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>0.186881832378969</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="1">
+        <v>0.727826086956522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1">
         <v>0.461428571428572</v>
@@ -4549,13 +7084,16 @@
       <c r="D71" s="1">
         <v>0.709523809523809</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>0.142533936651584</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="1">
+        <v>0.679206349206349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1">
         <v>0.604057971014493</v>
@@ -4566,13 +7104,16 @@
       <c r="D72" s="1">
         <v>0.730434782608696</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>0.223841749089016</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="1">
+        <v>0.730434782608696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1">
         <v>0.216880341880342</v>
@@ -4583,8 +7124,11 @@
       <c r="D73" s="1">
         <v>0.262820512820513</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0.181602842479274</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.263247863247863</v>
       </c>
     </row>
   </sheetData>

--- a/output/total_result.xlsx
+++ b/output/total_result.xlsx
@@ -260,7 +260,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,16 +745,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,122 +760,126 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,220 +1018,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.2984</c:v>
+                  <c:v>0.300333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.214141414141414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.163690476190476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.121212121212121</c:v>
+                  <c:v>0.0939393939393939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.317665130568356</c:v>
+                  <c:v>0.324270353302611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0888888888888889</c:v>
+                  <c:v>0.0525252525252525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.295917001338688</c:v>
+                  <c:v>0.295649263721553</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.384615384615385</c:v>
+                  <c:v>0.376068376068376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0868686868686868</c:v>
+                  <c:v>0.0969696969696969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.445555555555556</c:v>
+                  <c:v>0.446984126984127</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.219191919191919</c:v>
+                  <c:v>0.221212121212121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.257478632478633</c:v>
+                  <c:v>0.267307692307692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.170707070707071</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.362608695652174</c:v>
+                  <c:v>0.392753623188406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.116161616161616</c:v>
+                  <c:v>0.107070707070707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.230357142857143</c:v>
+                  <c:v>0.230952380952381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.245333333333333</c:v>
+                  <c:v>0.2554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.347619047619048</c:v>
+                  <c:v>0.352995391705069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.241533333333333</c:v>
+                  <c:v>0.245533333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.389223560910308</c:v>
+                  <c:v>0.390896921017403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.381466666666667</c:v>
+                  <c:v>0.380066666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.288034188034188</c:v>
+                  <c:v>0.292307692307692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.342533333333333</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.451904761904762</c:v>
+                  <c:v>0.468571428571429</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3612</c:v>
+                  <c:v>0.357866666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21517094017094</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.277133333333333</c:v>
+                  <c:v>0.277066666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.539420289855072</c:v>
+                  <c:v>0.529855072463768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.164</c:v>
+                  <c:v>0.169266666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.335637480798771</c:v>
+                  <c:v>0.3357910906298</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.226785714285714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.284939759036145</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.206547619047619</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.324786324786325</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.235714285714286</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.2904953145917</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.207142857142857</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.342735042735043</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.232738095238095</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.414444444444445</c:v>
+                  <c:v>0.422539682539683</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.181547619047619</c:v>
+                  <c:v>0.180357142857143</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.198504273504274</c:v>
+                  <c:v>0.20448717948718</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.175</c:v>
+                  <c:v>0.169642857142857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.648115942028985</c:v>
+                  <c:v>0.657101449275362</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.252380952380952</c:v>
+                  <c:v>0.253571428571429</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.300066934404284</c:v>
+                  <c:v>0.302543507362785</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.31689708141321</c:v>
+                  <c:v>0.315514592933948</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.294871794871795</c:v>
+                  <c:v>0.294017094017094</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.32258064516129</c:v>
+                  <c:v>0.314439324116744</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.374444444444445</c:v>
+                  <c:v>0.368571428571429</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.267741935483871</c:v>
+                  <c:v>0.265284178187404</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.201282051282051</c:v>
+                  <c:v>0.196367521367521</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.321505376344086</c:v>
+                  <c:v>0.303225806451613</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.694782608695652</c:v>
+                  <c:v>0.697971014492753</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.256221198156682</c:v>
+                  <c:v>0.253302611367128</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.447863247863248</c:v>
+                  <c:v>0.45042735042735</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.320013386880857</c:v>
+                  <c:v>0.320816599732263</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.695238095238095</c:v>
+                  <c:v>0.694444444444444</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.530522088353414</c:v>
+                  <c:v>0.5309906291834</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.252350427350427</c:v>
+                  <c:v>0.253418803418803</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.309973226238286</c:v>
+                  <c:v>0.313922356091031</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.724637681159421</c:v>
+                  <c:v>0.723768115942029</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.386746987951807</c:v>
+                  <c:v>0.384136546184739</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.480793650793651</c:v>
+                  <c:v>0.491111111111111</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.458119658119658</c:v>
+                  <c:v>0.466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.282905982905983</c:v>
+                  <c:v>0.277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.290598290598291</c:v>
+                  <c:v>0.304273504273504</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.490724637681159</c:v>
+                  <c:v>0.522608695652174</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.223931623931624</c:v>
+                  <c:v>0.217094017094017</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.246367521367521</c:v>
+                  <c:v>0.247863247863248</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.356507936507937</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.713623188405797</c:v>
+                  <c:v>0.71304347826087</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.461428571428572</c:v>
+                  <c:v>0.456825396825397</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.604057971014493</c:v>
+                  <c:v>0.589565217391305</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.216880341880342</c:v>
+                  <c:v>0.225854700854701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,220 +1294,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.210533333333333</c:v>
+                  <c:v>0.211066666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.194949494949495</c:v>
+                  <c:v>0.16969696969697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.219642857142857</c:v>
+                  <c:v>0.235714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.107070707070707</c:v>
+                  <c:v>0.117171717171717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.295698924731183</c:v>
+                  <c:v>0.292012288786482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.226262626262626</c:v>
+                  <c:v>0.168686868686869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.174431057563588</c:v>
+                  <c:v>0.153547523427042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.184848484848485</c:v>
+                  <c:v>0.187878787878788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22991452991453</c:v>
+                  <c:v>0.224786324786325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.170707070707071</c:v>
+                  <c:v>0.175757575757576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.188888888888889</c:v>
+                  <c:v>0.202857142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.196969696969697</c:v>
+                  <c:v>0.218181818181818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.187606837606838</c:v>
+                  <c:v>0.217094017094017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.216161616161616</c:v>
+                  <c:v>0.190909090909091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.126376811594203</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.108080808080808</c:v>
+                  <c:v>0.109090909090909</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.245238095238095</c:v>
+                  <c:v>0.233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1514</c:v>
+                  <c:v>0.133933333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.273732718894009</c:v>
+                  <c:v>0.273886328725038</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.210466666666667</c:v>
+                  <c:v>0.192866666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.236947791164659</c:v>
+                  <c:v>0.225903614457831</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3554</c:v>
+                  <c:v>0.355333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.178632478632479</c:v>
+                  <c:v>0.183760683760684</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.219666666666667</c:v>
+                  <c:v>0.207666666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.257142857142857</c:v>
+                  <c:v>0.24968253968254</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.308333333333333</c:v>
+                  <c:v>0.3126</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18482905982906</c:v>
+                  <c:v>0.185042735042735</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1742</c:v>
+                  <c:v>0.1456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.271304347826087</c:v>
+                  <c:v>0.274492753623188</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.102266666666667</c:v>
+                  <c:v>0.0991333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.286635944700461</c:v>
+                  <c:v>0.29615975422427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.182142857142857</c:v>
+                  <c:v>0.216071428571429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.129718875502008</c:v>
+                  <c:v>0.136412315930388</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.17797619047619</c:v>
+                  <c:v>0.176190476190476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.228205128205128</c:v>
+                  <c:v>0.21025641025641</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.247619047619048</c:v>
+                  <c:v>0.261904761904762</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0988888888888889</c:v>
+                  <c:v>0.125079365079365</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.217857142857143</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.161965811965812</c:v>
+                  <c:v>0.184615384615385</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.171428571428571</c:v>
+                  <c:v>0.178571428571428</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.186086956521739</c:v>
+                  <c:v>0.196521739130435</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.317261904761905</c:v>
+                  <c:v>0.298809523809524</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.130321285140562</c:v>
+                  <c:v>0.139223560910308</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.334101382488479</c:v>
+                  <c:v>0.325806451612903</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.18974358974359</c:v>
+                  <c:v>0.173504273504273</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.288325652841782</c:v>
+                  <c:v>0.280645161290323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.206190476190476</c:v>
+                  <c:v>0.203492063492064</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.272503840245776</c:v>
+                  <c:v>0.278955453149002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.217521367521368</c:v>
+                  <c:v>0.205128205128205</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.304301075268817</c:v>
+                  <c:v>0.307066052227343</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.430144927536232</c:v>
+                  <c:v>0.414492753623188</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.251612903225806</c:v>
+                  <c:v>0.243932411674347</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.426495726495727</c:v>
+                  <c:v>0.44017094017094</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.129718875502008</c:v>
+                  <c:v>0.138821954484605</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.592857142857143</c:v>
+                  <c:v>0.603809523809524</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.452610441767068</c:v>
+                  <c:v>0.45281124497992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.276068376068376</c:v>
+                  <c:v>0.272863247863248</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.123293172690763</c:v>
+                  <c:v>0.117536813922356</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.736811594202898</c:v>
+                  <c:v>0.735652173913043</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.190696117804552</c:v>
+                  <c:v>0.185542168674699</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.128571428571429</c:v>
+                  <c:v>0.125238095238095</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.358119658119658</c:v>
+                  <c:v>0.382905982905983</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.224145299145299</c:v>
+                  <c:v>0.221794871794872</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.117094017094017</c:v>
+                  <c:v>0.112820512820513</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.107826086956522</c:v>
+                  <c:v>0.109565217391304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.193162393162393</c:v>
+                  <c:v>0.188034188034188</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.270940170940171</c:v>
+                  <c:v>0.267307692307692</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.142698412698413</c:v>
+                  <c:v>0.131904761904762</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.387246376811594</c:v>
+                  <c:v>0.368405797101449</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.116666666666667</c:v>
+                  <c:v>0.113174603174603</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.158550724637681</c:v>
+                  <c:v>0.163768115942029</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.210470085470085</c:v>
+                  <c:v>0.202350427350427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,220 +2359,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.2984</c:v>
+                  <c:v>0.300333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.214141414141414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.163690476190476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.121212121212121</c:v>
+                  <c:v>0.0939393939393939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.317665130568356</c:v>
+                  <c:v>0.324270353302611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0888888888888889</c:v>
+                  <c:v>0.0525252525252525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.295917001338688</c:v>
+                  <c:v>0.295649263721553</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.384615384615385</c:v>
+                  <c:v>0.376068376068376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0868686868686868</c:v>
+                  <c:v>0.0969696969696969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.445555555555556</c:v>
+                  <c:v>0.446984126984127</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.219191919191919</c:v>
+                  <c:v>0.221212121212121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.257478632478633</c:v>
+                  <c:v>0.267307692307692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.170707070707071</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.362608695652174</c:v>
+                  <c:v>0.392753623188406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.116161616161616</c:v>
+                  <c:v>0.107070707070707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.230357142857143</c:v>
+                  <c:v>0.230952380952381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.245333333333333</c:v>
+                  <c:v>0.2554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.347619047619048</c:v>
+                  <c:v>0.352995391705069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.241533333333333</c:v>
+                  <c:v>0.245533333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.389223560910308</c:v>
+                  <c:v>0.390896921017403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.381466666666667</c:v>
+                  <c:v>0.380066666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.288034188034188</c:v>
+                  <c:v>0.292307692307692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.342533333333333</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.451904761904762</c:v>
+                  <c:v>0.468571428571429</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3612</c:v>
+                  <c:v>0.357866666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21517094017094</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.277133333333333</c:v>
+                  <c:v>0.277066666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.539420289855072</c:v>
+                  <c:v>0.529855072463768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.164</c:v>
+                  <c:v>0.169266666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.335637480798771</c:v>
+                  <c:v>0.3357910906298</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.226785714285714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.284939759036145</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.206547619047619</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.324786324786325</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.235714285714286</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.2904953145917</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.207142857142857</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.342735042735043</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.232738095238095</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.414444444444445</c:v>
+                  <c:v>0.422539682539683</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.181547619047619</c:v>
+                  <c:v>0.180357142857143</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.198504273504274</c:v>
+                  <c:v>0.20448717948718</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.175</c:v>
+                  <c:v>0.169642857142857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.648115942028985</c:v>
+                  <c:v>0.657101449275362</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.252380952380952</c:v>
+                  <c:v>0.253571428571429</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.300066934404284</c:v>
+                  <c:v>0.302543507362785</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.31689708141321</c:v>
+                  <c:v>0.315514592933948</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.294871794871795</c:v>
+                  <c:v>0.294017094017094</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.32258064516129</c:v>
+                  <c:v>0.314439324116744</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.374444444444445</c:v>
+                  <c:v>0.368571428571429</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.267741935483871</c:v>
+                  <c:v>0.265284178187404</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.201282051282051</c:v>
+                  <c:v>0.196367521367521</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.321505376344086</c:v>
+                  <c:v>0.303225806451613</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.694782608695652</c:v>
+                  <c:v>0.697971014492753</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.256221198156682</c:v>
+                  <c:v>0.253302611367128</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.447863247863248</c:v>
+                  <c:v>0.45042735042735</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.320013386880857</c:v>
+                  <c:v>0.320816599732263</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.695238095238095</c:v>
+                  <c:v>0.694444444444444</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.530522088353414</c:v>
+                  <c:v>0.5309906291834</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.252350427350427</c:v>
+                  <c:v>0.253418803418803</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.309973226238286</c:v>
+                  <c:v>0.313922356091031</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.724637681159421</c:v>
+                  <c:v>0.723768115942029</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.386746987951807</c:v>
+                  <c:v>0.384136546184739</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.480793650793651</c:v>
+                  <c:v>0.491111111111111</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.458119658119658</c:v>
+                  <c:v>0.466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.282905982905983</c:v>
+                  <c:v>0.277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.290598290598291</c:v>
+                  <c:v>0.304273504273504</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.490724637681159</c:v>
+                  <c:v>0.522608695652174</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.223931623931624</c:v>
+                  <c:v>0.217094017094017</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.246367521367521</c:v>
+                  <c:v>0.247863247863248</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.356507936507937</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.713623188405797</c:v>
+                  <c:v>0.71304347826087</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.461428571428572</c:v>
+                  <c:v>0.456825396825397</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.604057971014493</c:v>
+                  <c:v>0.589565217391305</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.216880341880342</c:v>
+                  <c:v>0.225854700854701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,220 +2617,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.210533333333333</c:v>
+                  <c:v>0.211066666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.194949494949495</c:v>
+                  <c:v>0.16969696969697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.219642857142857</c:v>
+                  <c:v>0.235714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.107070707070707</c:v>
+                  <c:v>0.117171717171717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.295698924731183</c:v>
+                  <c:v>0.292012288786482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.226262626262626</c:v>
+                  <c:v>0.168686868686869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.174431057563588</c:v>
+                  <c:v>0.153547523427042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.184848484848485</c:v>
+                  <c:v>0.187878787878788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22991452991453</c:v>
+                  <c:v>0.224786324786325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.170707070707071</c:v>
+                  <c:v>0.175757575757576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.188888888888889</c:v>
+                  <c:v>0.202857142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.196969696969697</c:v>
+                  <c:v>0.218181818181818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.187606837606838</c:v>
+                  <c:v>0.217094017094017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.216161616161616</c:v>
+                  <c:v>0.190909090909091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.126376811594203</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.108080808080808</c:v>
+                  <c:v>0.109090909090909</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.245238095238095</c:v>
+                  <c:v>0.233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1514</c:v>
+                  <c:v>0.133933333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.273732718894009</c:v>
+                  <c:v>0.273886328725038</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.210466666666667</c:v>
+                  <c:v>0.192866666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.236947791164659</c:v>
+                  <c:v>0.225903614457831</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3554</c:v>
+                  <c:v>0.355333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.178632478632479</c:v>
+                  <c:v>0.183760683760684</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.219666666666667</c:v>
+                  <c:v>0.207666666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.257142857142857</c:v>
+                  <c:v>0.24968253968254</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.308333333333333</c:v>
+                  <c:v>0.3126</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18482905982906</c:v>
+                  <c:v>0.185042735042735</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1742</c:v>
+                  <c:v>0.1456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.271304347826087</c:v>
+                  <c:v>0.274492753623188</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.102266666666667</c:v>
+                  <c:v>0.0991333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.286635944700461</c:v>
+                  <c:v>0.29615975422427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.182142857142857</c:v>
+                  <c:v>0.216071428571429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.129718875502008</c:v>
+                  <c:v>0.136412315930388</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.17797619047619</c:v>
+                  <c:v>0.176190476190476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.228205128205128</c:v>
+                  <c:v>0.21025641025641</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.247619047619048</c:v>
+                  <c:v>0.261904761904762</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0988888888888889</c:v>
+                  <c:v>0.125079365079365</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.217857142857143</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.161965811965812</c:v>
+                  <c:v>0.184615384615385</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.171428571428571</c:v>
+                  <c:v>0.178571428571428</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.186086956521739</c:v>
+                  <c:v>0.196521739130435</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.317261904761905</c:v>
+                  <c:v>0.298809523809524</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.130321285140562</c:v>
+                  <c:v>0.139223560910308</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.334101382488479</c:v>
+                  <c:v>0.325806451612903</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.18974358974359</c:v>
+                  <c:v>0.173504273504273</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.288325652841782</c:v>
+                  <c:v>0.280645161290323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.206190476190476</c:v>
+                  <c:v>0.203492063492064</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.272503840245776</c:v>
+                  <c:v>0.278955453149002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.217521367521368</c:v>
+                  <c:v>0.205128205128205</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.304301075268817</c:v>
+                  <c:v>0.307066052227343</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.430144927536232</c:v>
+                  <c:v>0.414492753623188</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.251612903225806</c:v>
+                  <c:v>0.243932411674347</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.426495726495727</c:v>
+                  <c:v>0.44017094017094</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.129718875502008</c:v>
+                  <c:v>0.138821954484605</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.592857142857143</c:v>
+                  <c:v>0.603809523809524</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.452610441767068</c:v>
+                  <c:v>0.45281124497992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.276068376068376</c:v>
+                  <c:v>0.272863247863248</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.123293172690763</c:v>
+                  <c:v>0.117536813922356</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.736811594202898</c:v>
+                  <c:v>0.735652173913043</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.190696117804552</c:v>
+                  <c:v>0.185542168674699</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.128571428571429</c:v>
+                  <c:v>0.125238095238095</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.358119658119658</c:v>
+                  <c:v>0.382905982905983</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.224145299145299</c:v>
+                  <c:v>0.221794871794872</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.117094017094017</c:v>
+                  <c:v>0.112820512820513</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.107826086956522</c:v>
+                  <c:v>0.109565217391304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.193162393162393</c:v>
+                  <c:v>0.188034188034188</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.270940170940171</c:v>
+                  <c:v>0.267307692307692</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.142698412698413</c:v>
+                  <c:v>0.131904761904762</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.387246376811594</c:v>
+                  <c:v>0.368405797101449</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.116666666666667</c:v>
+                  <c:v>0.113174603174603</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.158550724637681</c:v>
+                  <c:v>0.163768115942029</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.210470085470085</c:v>
+                  <c:v>0.202350427350427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5660,8 +5668,8 @@
   <sheetPr/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E44" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5696,38 +5704,38 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>0.2984</v>
+        <v>0.300333333333333</v>
       </c>
       <c r="C2" s="1">
-        <v>0.210533333333333</v>
-      </c>
-      <c r="D2" s="1">
+        <v>0.211066666666667</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.348</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.222823529411765</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.3772</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.214141414141414</v>
       </c>
       <c r="C3" s="1">
-        <v>0.194949494949495</v>
-      </c>
-      <c r="D3" s="1">
+        <v>0.16969696969697</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.181818181818182</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.210953346855984</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.247474747474747</v>
       </c>
     </row>
@@ -5736,18 +5744,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.166666666666667</v>
+        <v>0.163690476190476</v>
       </c>
       <c r="C4" s="1">
-        <v>0.219642857142857</v>
-      </c>
-      <c r="D4" s="1">
+        <v>0.235714285714286</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.285714285714286</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.183823529411765</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -5756,18 +5764,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.121212121212121</v>
+        <v>0.0939393939393939</v>
       </c>
       <c r="C5" s="1">
-        <v>0.107070707070707</v>
-      </c>
-      <c r="D5" s="1">
+        <v>0.117171717171717</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.181818181818182</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.210953346855984</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.253535353535353</v>
       </c>
     </row>
@@ -5776,18 +5784,18 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>0.317665130568356</v>
+        <v>0.324270353302611</v>
       </c>
       <c r="C6" s="1">
-        <v>0.295698924731183</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.292012288786482</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.276497695852535</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.184631077864672</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5796,18 +5804,18 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0888888888888889</v>
+        <v>0.0525252525252525</v>
       </c>
       <c r="C7" s="1">
-        <v>0.226262626262626</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.168686868686869</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.272727272727272</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.202839756592292</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.25050505050505</v>
       </c>
     </row>
@@ -5816,18 +5824,18 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>0.295917001338688</v>
+        <v>0.295649263721553</v>
       </c>
       <c r="C8" s="1">
-        <v>0.174431057563588</v>
-      </c>
-      <c r="D8" s="1">
+        <v>0.153547523427042</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.419678714859438</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.244582043343653</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -5839,15 +5847,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="C9" s="1">
-        <v>0.184848484848485</v>
-      </c>
-      <c r="D9" s="1">
+        <v>0.187878787878788</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.181818181818182</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.206896551724138</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.237373737373737</v>
       </c>
     </row>
@@ -5856,18 +5864,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>0.384615384615385</v>
+        <v>0.376068376068376</v>
       </c>
       <c r="C10" s="1">
-        <v>0.22991452991453</v>
-      </c>
-      <c r="D10" s="1">
+        <v>0.224786324786325</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.487179487179487</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.221719457013575</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.441880341880342</v>
       </c>
     </row>
@@ -5876,18 +5884,18 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0868686868686868</v>
+        <v>0.0969696969696969</v>
       </c>
       <c r="C11" s="1">
-        <v>0.170707070707071</v>
-      </c>
-      <c r="D11" s="1">
+        <v>0.175757575757576</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.242424242424242</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.206896551724138</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.246464646464646</v>
       </c>
     </row>
@@ -5896,18 +5904,18 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0.445555555555556</v>
+        <v>0.446984126984127</v>
       </c>
       <c r="C12" s="1">
-        <v>0.188888888888889</v>
-      </c>
-      <c r="D12" s="1">
+        <v>0.202857142857143</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.576190476190476</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.219739819004525</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.680793650793651</v>
       </c>
     </row>
@@ -5916,18 +5924,18 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>0.219191919191919</v>
+        <v>0.221212121212121</v>
       </c>
       <c r="C13" s="1">
-        <v>0.196969696969697</v>
-      </c>
-      <c r="D13" s="1">
+        <v>0.218181818181818</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.333333333333333</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.212981744421907</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.229292929292929</v>
       </c>
     </row>
@@ -5936,18 +5944,18 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>0.257478632478633</v>
+        <v>0.267307692307692</v>
       </c>
       <c r="C14" s="1">
-        <v>0.187606837606838</v>
-      </c>
-      <c r="D14" s="1">
+        <v>0.217094017094017</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.282051282051282</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.207658902487169</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.267307692307692</v>
       </c>
     </row>
@@ -5956,18 +5964,18 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>0.170707070707071</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="C15" s="1">
-        <v>0.216161616161616</v>
-      </c>
-      <c r="D15" s="1">
+        <v>0.190909090909091</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.242424242424242</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.200811359026369</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.246464646464646</v>
       </c>
     </row>
@@ -5976,38 +5984,38 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>0.362608695652174</v>
+        <v>0.392753623188406</v>
       </c>
       <c r="C16" s="1">
-        <v>0.126376811594203</v>
-      </c>
-      <c r="D16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.68695652173913</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>0.2852680895367</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.72695652173913</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>0.116161616161616</v>
+        <v>0.107070707070707</v>
       </c>
       <c r="C17" s="1">
-        <v>0.108080808080808</v>
-      </c>
-      <c r="D17" s="1">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.181818181818182</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.221095334685598</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.25050505050505</v>
       </c>
     </row>
@@ -6016,18 +6024,18 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>0.230357142857143</v>
+        <v>0.230952380952381</v>
       </c>
       <c r="C18" s="1">
-        <v>0.245238095238095</v>
-      </c>
-      <c r="D18" s="1">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.196428571428571</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>0.176470588235294</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6036,18 +6044,18 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>0.245333333333333</v>
+        <v>0.2554</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1514</v>
-      </c>
-      <c r="D19" s="1">
+        <v>0.133933333333333</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.36</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>0.229058823529412</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0.3754</v>
       </c>
     </row>
@@ -6056,18 +6064,18 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>0.347619047619048</v>
+        <v>0.352995391705069</v>
       </c>
       <c r="C20" s="1">
-        <v>0.273732718894009</v>
-      </c>
-      <c r="D20" s="1">
+        <v>0.273886328725038</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.248847926267281</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>0.154029241754505</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6076,18 +6084,18 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>0.241533333333333</v>
+        <v>0.245533333333333</v>
       </c>
       <c r="C21" s="1">
-        <v>0.210466666666667</v>
-      </c>
-      <c r="D21" s="1">
+        <v>0.192866666666667</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.358</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.211058823529412</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.378066666666667</v>
       </c>
     </row>
@@ -6096,18 +6104,18 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>0.389223560910308</v>
+        <v>0.390896921017403</v>
       </c>
       <c r="C22" s="1">
-        <v>0.236947791164659</v>
-      </c>
-      <c r="D22" s="1">
+        <v>0.225903614457831</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.514056224899598</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.166068111455108</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6116,18 +6124,18 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>0.381466666666667</v>
+        <v>0.380066666666667</v>
       </c>
       <c r="C23" s="1">
-        <v>0.3554</v>
-      </c>
-      <c r="D23" s="1">
+        <v>0.355333333333333</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.366</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>0.190823529411765</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.3798</v>
       </c>
     </row>
@@ -6136,18 +6144,18 @@
         <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>0.288034188034188</v>
+        <v>0.292307692307692</v>
       </c>
       <c r="C24" s="1">
-        <v>0.178632478632479</v>
-      </c>
-      <c r="D24" s="1">
+        <v>0.183760683760684</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.410256410256411</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.179487179487179</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.454700854700855</v>
       </c>
     </row>
@@ -6156,18 +6164,18 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>0.342533333333333</v>
+        <v>0.35</v>
       </c>
       <c r="C25" s="1">
-        <v>0.219666666666667</v>
-      </c>
-      <c r="D25" s="1">
+        <v>0.207666666666667</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.368</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>0.2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.3754</v>
       </c>
     </row>
@@ -6176,18 +6184,18 @@
         <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>0.451904761904762</v>
+        <v>0.468571428571429</v>
       </c>
       <c r="C26" s="1">
-        <v>0.257142857142857</v>
-      </c>
-      <c r="D26" s="1">
+        <v>0.24968253968254</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.671428571428571</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>0.141968325791855</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.679047619047619</v>
       </c>
     </row>
@@ -6196,18 +6204,18 @@
         <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>0.3612</v>
+        <v>0.357866666666667</v>
       </c>
       <c r="C27" s="1">
-        <v>0.308333333333333</v>
-      </c>
-      <c r="D27" s="1">
+        <v>0.3126</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.338</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>0.192</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.379133333333333</v>
       </c>
     </row>
@@ -6216,18 +6224,18 @@
         <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>0.21517094017094</v>
+        <v>0.225</v>
       </c>
       <c r="C28" s="1">
-        <v>0.18482905982906</v>
-      </c>
-      <c r="D28" s="1">
+        <v>0.185042735042735</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.294871794871795</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>0.183971575207264</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0.258974358974359</v>
       </c>
     </row>
@@ -6236,18 +6244,18 @@
         <v>33</v>
       </c>
       <c r="B29" s="1">
-        <v>0.277133333333333</v>
+        <v>0.277066666666667</v>
       </c>
       <c r="C29" s="1">
-        <v>0.1742</v>
-      </c>
-      <c r="D29" s="1">
+        <v>0.1456</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.382</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>0.204</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0.378333333333333</v>
       </c>
     </row>
@@ -6256,18 +6264,18 @@
         <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>0.539420289855072</v>
+        <v>0.529855072463768</v>
       </c>
       <c r="C30" s="1">
-        <v>0.271304347826087</v>
-      </c>
-      <c r="D30" s="1">
+        <v>0.274492753623188</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.695652173913043</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>0.197813638729828</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0.730144927536232</v>
       </c>
     </row>
@@ -6276,18 +6284,18 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>0.164</v>
+        <v>0.169266666666667</v>
       </c>
       <c r="C31" s="1">
-        <v>0.102266666666667</v>
-      </c>
-      <c r="D31" s="1">
+        <v>0.0991333333333333</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.356</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>0.190823529411765</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.376933333333333</v>
       </c>
     </row>
@@ -6296,38 +6304,38 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>0.335637480798771</v>
+        <v>0.3357910906298</v>
       </c>
       <c r="C32" s="1">
-        <v>0.286635944700461</v>
-      </c>
-      <c r="D32" s="1">
+        <v>0.29615975422427</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.248847926267281</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>0.155049302958178</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>0.235714285714286</v>
+        <v>0.226785714285714</v>
       </c>
       <c r="C33" s="1">
-        <v>0.182142857142857</v>
-      </c>
-      <c r="D33" s="1">
+        <v>0.216071428571429</v>
+      </c>
+      <c r="D33" s="2">
         <v>0.160714285714286</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>0.178571428571429</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6336,18 +6344,18 @@
         <v>38</v>
       </c>
       <c r="B34" s="1">
-        <v>0.2904953145917</v>
+        <v>0.284939759036145</v>
       </c>
       <c r="C34" s="1">
-        <v>0.129718875502008</v>
-      </c>
-      <c r="D34" s="1">
+        <v>0.136412315930388</v>
+      </c>
+      <c r="D34" s="2">
         <v>0.506024096385542</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>0.21312693498452</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6356,18 +6364,18 @@
         <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>0.207142857142857</v>
+        <v>0.206547619047619</v>
       </c>
       <c r="C35" s="1">
-        <v>0.17797619047619</v>
-      </c>
-      <c r="D35" s="1">
+        <v>0.176190476190476</v>
+      </c>
+      <c r="D35" s="2">
         <v>0.178571428571428</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>0.176470588235294</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6376,18 +6384,18 @@
         <v>40</v>
       </c>
       <c r="B36" s="1">
-        <v>0.342735042735043</v>
+        <v>0.324786324786325</v>
       </c>
       <c r="C36" s="1">
-        <v>0.228205128205128</v>
-      </c>
-      <c r="D36" s="1">
+        <v>0.21025641025641</v>
+      </c>
+      <c r="D36" s="2">
         <v>0.435897435897436</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>0.196078431372549</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0.436752136752137</v>
       </c>
     </row>
@@ -6396,18 +6404,18 @@
         <v>41</v>
       </c>
       <c r="B37" s="1">
-        <v>0.232738095238095</v>
+        <v>0.235714285714286</v>
       </c>
       <c r="C37" s="1">
-        <v>0.247619047619048</v>
-      </c>
-      <c r="D37" s="1">
+        <v>0.261904761904762</v>
+      </c>
+      <c r="D37" s="2">
         <v>0.232142857142857</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>0.180672268907563</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6416,38 +6424,38 @@
         <v>42</v>
       </c>
       <c r="B38" s="1">
-        <v>0.414444444444445</v>
+        <v>0.422539682539683</v>
       </c>
       <c r="C38" s="1">
-        <v>0.0988888888888889</v>
-      </c>
-      <c r="D38" s="1">
+        <v>0.125079365079365</v>
+      </c>
+      <c r="D38" s="2">
         <v>0.7</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>0.242364253393665</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0.682063492063492</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1">
-        <v>0.181547619047619</v>
+        <v>0.180357142857143</v>
       </c>
       <c r="C39" s="1">
         <v>0.217857142857143</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>0.196428571428571</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>0.175420168067227</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6456,18 +6464,18 @@
         <v>44</v>
       </c>
       <c r="B40" s="1">
-        <v>0.198504273504274</v>
+        <v>0.20448717948718</v>
       </c>
       <c r="C40" s="1">
-        <v>0.161965811965812</v>
-      </c>
-      <c r="D40" s="1">
+        <v>0.184615384615385</v>
+      </c>
+      <c r="D40" s="2">
         <v>0.294871794871795</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>0.203711014607185</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0.265384615384615</v>
       </c>
     </row>
@@ -6476,38 +6484,38 @@
         <v>45</v>
       </c>
       <c r="B41" s="1">
-        <v>0.175</v>
+        <v>0.169642857142857</v>
       </c>
       <c r="C41" s="1">
-        <v>0.171428571428571</v>
-      </c>
-      <c r="D41" s="1">
+        <v>0.178571428571428</v>
+      </c>
+      <c r="D41" s="2">
         <v>0.196428571428571</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>0.17436974789916</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="1">
-        <v>0.648115942028985</v>
+        <v>0.657101449275362</v>
       </c>
       <c r="C42" s="1">
-        <v>0.186086956521739</v>
-      </c>
-      <c r="D42" s="1">
+        <v>0.196521739130435</v>
+      </c>
+      <c r="D42" s="2">
         <v>0.747826086956522</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>0.244664237376367</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0.729855072463768</v>
       </c>
     </row>
@@ -6516,18 +6524,18 @@
         <v>47</v>
       </c>
       <c r="B43" s="1">
-        <v>0.252380952380952</v>
+        <v>0.253571428571429</v>
       </c>
       <c r="C43" s="1">
-        <v>0.317261904761905</v>
-      </c>
-      <c r="D43" s="1">
+        <v>0.298809523809524</v>
+      </c>
+      <c r="D43" s="2">
         <v>0.214285714285714</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>0.177521008403361</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6536,18 +6544,18 @@
         <v>48</v>
       </c>
       <c r="B44" s="1">
-        <v>0.300066934404284</v>
+        <v>0.302543507362785</v>
       </c>
       <c r="C44" s="1">
-        <v>0.130321285140562</v>
-      </c>
-      <c r="D44" s="1">
+        <v>0.139223560910308</v>
+      </c>
+      <c r="D44" s="2">
         <v>0.483935742971887</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>0.187739938080495</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6556,18 +6564,18 @@
         <v>49</v>
       </c>
       <c r="B45" s="1">
-        <v>0.31689708141321</v>
+        <v>0.315514592933948</v>
       </c>
       <c r="C45" s="1">
-        <v>0.334101382488479</v>
-      </c>
-      <c r="D45" s="1">
+        <v>0.325806451612903</v>
+      </c>
+      <c r="D45" s="2">
         <v>0.285714285714286</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>0.152329139748385</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6576,18 +6584,18 @@
         <v>50</v>
       </c>
       <c r="B46" s="1">
-        <v>0.294871794871795</v>
+        <v>0.294017094017094</v>
       </c>
       <c r="C46" s="1">
-        <v>0.18974358974359</v>
-      </c>
-      <c r="D46" s="1">
+        <v>0.173504273504273</v>
+      </c>
+      <c r="D46" s="2">
         <v>0.564102564102564</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>0.191553544494721</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0.446153846153846</v>
       </c>
     </row>
@@ -6596,18 +6604,18 @@
         <v>51</v>
       </c>
       <c r="B47" s="1">
-        <v>0.32258064516129</v>
+        <v>0.314439324116744</v>
       </c>
       <c r="C47" s="1">
-        <v>0.288325652841782</v>
-      </c>
-      <c r="D47" s="1">
+        <v>0.280645161290323</v>
+      </c>
+      <c r="D47" s="2">
         <v>0.271889400921659</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>0.161849710982659</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6616,18 +6624,18 @@
         <v>52</v>
       </c>
       <c r="B48" s="1">
-        <v>0.374444444444445</v>
+        <v>0.368571428571429</v>
       </c>
       <c r="C48" s="1">
-        <v>0.206190476190476</v>
-      </c>
-      <c r="D48" s="1">
+        <v>0.203492063492064</v>
+      </c>
+      <c r="D48" s="2">
         <v>0.642857142857143</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>0.166855203619909</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0.678730158730159</v>
       </c>
     </row>
@@ -6636,58 +6644,58 @@
         <v>53</v>
       </c>
       <c r="B49" s="1">
-        <v>0.267741935483871</v>
+        <v>0.265284178187404</v>
       </c>
       <c r="C49" s="1">
-        <v>0.272503840245776</v>
-      </c>
-      <c r="D49" s="1">
+        <v>0.278955453149002</v>
+      </c>
+      <c r="D49" s="2">
         <v>0.271889400921659</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>0.15028901734104</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="1">
-        <v>0.201282051282051</v>
+        <v>0.196367521367521</v>
       </c>
       <c r="C50" s="1">
-        <v>0.217521367521368</v>
-      </c>
-      <c r="D50" s="1">
+        <v>0.205128205128205</v>
+      </c>
+      <c r="D50" s="2">
         <v>0.294871794871795</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>0.191077773391236</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0.263888888888889</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1">
-        <v>0.321505376344086</v>
+        <v>0.303225806451613</v>
       </c>
       <c r="C51" s="1">
-        <v>0.304301075268817</v>
-      </c>
-      <c r="D51" s="1">
+        <v>0.307066052227343</v>
+      </c>
+      <c r="D51" s="2">
         <v>0.230414746543779</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>0.161509690581435</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6696,18 +6704,18 @@
         <v>56</v>
       </c>
       <c r="B52" s="1">
-        <v>0.694782608695652</v>
+        <v>0.697971014492753</v>
       </c>
       <c r="C52" s="1">
-        <v>0.430144927536232</v>
-      </c>
-      <c r="D52" s="1">
+        <v>0.414492753623188</v>
+      </c>
+      <c r="D52" s="2">
         <v>0.713043478260869</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>0.21186881832379</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0.729855072463768</v>
       </c>
     </row>
@@ -6716,18 +6724,18 @@
         <v>57</v>
       </c>
       <c r="B53" s="1">
-        <v>0.256221198156682</v>
+        <v>0.253302611367128</v>
       </c>
       <c r="C53" s="1">
-        <v>0.251612903225806</v>
-      </c>
-      <c r="D53" s="1">
+        <v>0.243932411674347</v>
+      </c>
+      <c r="D53" s="2">
         <v>0.285714285714286</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>0.154029241754505</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6736,18 +6744,18 @@
         <v>58</v>
       </c>
       <c r="B54" s="1">
-        <v>0.447863247863248</v>
+        <v>0.45042735042735</v>
       </c>
       <c r="C54" s="1">
-        <v>0.426495726495727</v>
-      </c>
-      <c r="D54" s="1">
+        <v>0.44017094017094</v>
+      </c>
+      <c r="D54" s="2">
         <v>0.384615384615385</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>0.176470588235294</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0.455555555555556</v>
       </c>
     </row>
@@ -6756,18 +6764,18 @@
         <v>59</v>
       </c>
       <c r="B55" s="1">
-        <v>0.320013386880857</v>
+        <v>0.320816599732263</v>
       </c>
       <c r="C55" s="1">
-        <v>0.129718875502008</v>
-      </c>
-      <c r="D55" s="1">
+        <v>0.138821954484605</v>
+      </c>
+      <c r="D55" s="2">
         <v>0.528112449799197</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>0.177213622291022</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6776,18 +6784,18 @@
         <v>60</v>
       </c>
       <c r="B56" s="1">
-        <v>0.695238095238095</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="C56" s="1">
-        <v>0.592857142857143</v>
-      </c>
-      <c r="D56" s="1">
+        <v>0.603809523809524</v>
+      </c>
+      <c r="D56" s="2">
         <v>0.69047619047619</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>0.137443438914027</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0.676190476190476</v>
       </c>
     </row>
@@ -6796,18 +6804,18 @@
         <v>61</v>
       </c>
       <c r="B57" s="1">
-        <v>0.530522088353414</v>
+        <v>0.5309906291834</v>
       </c>
       <c r="C57" s="1">
-        <v>0.452610441767068</v>
-      </c>
-      <c r="D57" s="1">
+        <v>0.45281124497992</v>
+      </c>
+      <c r="D57" s="2">
         <v>0.485943775100402</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>0.164582043343653</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6816,38 +6824,38 @@
         <v>62</v>
       </c>
       <c r="B58" s="1">
-        <v>0.252350427350427</v>
+        <v>0.253418803418803</v>
       </c>
       <c r="C58" s="1">
-        <v>0.276068376068376</v>
-      </c>
-      <c r="D58" s="1">
+        <v>0.272863247863248</v>
+      </c>
+      <c r="D58" s="2">
         <v>0.269230769230769</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>0.18002368732728</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0.267307692307692</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="1">
-        <v>0.309973226238286</v>
+        <v>0.313922356091031</v>
       </c>
       <c r="C59" s="1">
-        <v>0.123293172690763</v>
-      </c>
-      <c r="D59" s="1">
+        <v>0.117536813922356</v>
+      </c>
+      <c r="D59" s="2">
         <v>0.534136546184739</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>0.192941176470588</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6856,18 +6864,18 @@
         <v>64</v>
       </c>
       <c r="B60" s="1">
-        <v>0.724637681159421</v>
+        <v>0.723768115942029</v>
       </c>
       <c r="C60" s="1">
-        <v>0.736811594202898</v>
-      </c>
-      <c r="D60" s="1">
+        <v>0.735652173913043</v>
+      </c>
+      <c r="D60" s="2">
         <v>0.721739130434783</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>0.186361270171785</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0.728115942028986</v>
       </c>
     </row>
@@ -6876,18 +6884,18 @@
         <v>65</v>
       </c>
       <c r="B61" s="1">
-        <v>0.386746987951807</v>
+        <v>0.384136546184739</v>
       </c>
       <c r="C61" s="1">
-        <v>0.190696117804552</v>
-      </c>
-      <c r="D61" s="1">
+        <v>0.185542168674699</v>
+      </c>
+      <c r="D61" s="2">
         <v>0.532128514056225</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>0.167430340557275</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6896,18 +6904,18 @@
         <v>66</v>
       </c>
       <c r="B62" s="1">
-        <v>0.480793650793651</v>
+        <v>0.491111111111111</v>
       </c>
       <c r="C62" s="1">
-        <v>0.128571428571429</v>
-      </c>
-      <c r="D62" s="1">
+        <v>0.125238095238095</v>
+      </c>
+      <c r="D62" s="2">
         <v>0.633333333333333</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>0.143382352941176</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>0.677460317460317</v>
       </c>
     </row>
@@ -6916,18 +6924,18 @@
         <v>67</v>
       </c>
       <c r="B63" s="1">
-        <v>0.458119658119658</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="C63" s="1">
-        <v>0.358119658119658</v>
-      </c>
-      <c r="D63" s="1">
+        <v>0.382905982905983</v>
+      </c>
+      <c r="D63" s="2">
         <v>0.333333333333333</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>0.176470588235294</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0.452136752136752</v>
       </c>
     </row>
@@ -6936,18 +6944,18 @@
         <v>68</v>
       </c>
       <c r="B64" s="1">
-        <v>0.282905982905983</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="C64" s="1">
-        <v>0.224145299145299</v>
-      </c>
-      <c r="D64" s="1">
+        <v>0.221794871794872</v>
+      </c>
+      <c r="D64" s="2">
         <v>0.282051282051282</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>0.182392420055271</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0.266025641025641</v>
       </c>
     </row>
@@ -6956,18 +6964,18 @@
         <v>69</v>
       </c>
       <c r="B65" s="1">
-        <v>0.290598290598291</v>
+        <v>0.304273504273504</v>
       </c>
       <c r="C65" s="1">
-        <v>0.117094017094017</v>
-      </c>
-      <c r="D65" s="1">
+        <v>0.112820512820513</v>
+      </c>
+      <c r="D65" s="2">
         <v>0.461538461538462</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>0.187028657616893</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0.457264957264957</v>
       </c>
     </row>
@@ -6976,18 +6984,18 @@
         <v>70</v>
       </c>
       <c r="B66" s="1">
-        <v>0.490724637681159</v>
+        <v>0.522608695652174</v>
       </c>
       <c r="C66" s="1">
-        <v>0.107826086956522</v>
-      </c>
-      <c r="D66" s="1">
+        <v>0.109565217391304</v>
+      </c>
+      <c r="D66" s="2">
         <v>0.739130434782609</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>0.194169703279542</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0.728985507246377</v>
       </c>
     </row>
@@ -6996,18 +7004,18 @@
         <v>71</v>
       </c>
       <c r="B67" s="1">
-        <v>0.223931623931624</v>
+        <v>0.217094017094017</v>
       </c>
       <c r="C67" s="1">
-        <v>0.193162393162393</v>
-      </c>
-      <c r="D67" s="1">
+        <v>0.188034188034188</v>
+      </c>
+      <c r="D67" s="2">
         <v>0.487179487179487</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>0.173453996983409</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0.445299145299145</v>
       </c>
     </row>
@@ -7016,18 +7024,18 @@
         <v>72</v>
       </c>
       <c r="B68" s="1">
-        <v>0.246367521367521</v>
+        <v>0.247863247863248</v>
       </c>
       <c r="C68" s="1">
-        <v>0.270940170940171</v>
-      </c>
-      <c r="D68" s="1">
+        <v>0.267307692307692</v>
+      </c>
+      <c r="D68" s="2">
         <v>0.243589743589744</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>0.180418476115278</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>0.265384615384615</v>
       </c>
     </row>
@@ -7036,18 +7044,18 @@
         <v>73</v>
       </c>
       <c r="B69" s="1">
-        <v>0.366666666666667</v>
+        <v>0.356507936507937</v>
       </c>
       <c r="C69" s="1">
-        <v>0.142698412698413</v>
-      </c>
-      <c r="D69" s="1">
+        <v>0.131904761904762</v>
+      </c>
+      <c r="D69" s="2">
         <v>0.671428571428571</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>0.154977375565611</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>0.678888888888889</v>
       </c>
     </row>
@@ -7056,18 +7064,18 @@
         <v>74</v>
       </c>
       <c r="B70" s="1">
-        <v>0.713623188405797</v>
+        <v>0.71304347826087</v>
       </c>
       <c r="C70" s="1">
-        <v>0.387246376811594</v>
-      </c>
-      <c r="D70" s="1">
+        <v>0.368405797101449</v>
+      </c>
+      <c r="D70" s="2">
         <v>0.660869565217391</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>0.186881832378969</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0.727826086956522</v>
       </c>
     </row>
@@ -7076,18 +7084,18 @@
         <v>75</v>
       </c>
       <c r="B71" s="1">
-        <v>0.461428571428572</v>
+        <v>0.456825396825397</v>
       </c>
       <c r="C71" s="1">
-        <v>0.116666666666667</v>
-      </c>
-      <c r="D71" s="1">
+        <v>0.113174603174603</v>
+      </c>
+      <c r="D71" s="2">
         <v>0.709523809523809</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>0.142533936651584</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0.679206349206349</v>
       </c>
     </row>
@@ -7096,18 +7104,18 @@
         <v>76</v>
       </c>
       <c r="B72" s="1">
-        <v>0.604057971014493</v>
+        <v>0.589565217391305</v>
       </c>
       <c r="C72" s="1">
-        <v>0.158550724637681</v>
-      </c>
-      <c r="D72" s="1">
+        <v>0.163768115942029</v>
+      </c>
+      <c r="D72" s="2">
         <v>0.730434782608696</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>0.223841749089016</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>0.730434782608696</v>
       </c>
     </row>
@@ -7116,18 +7124,18 @@
         <v>77</v>
       </c>
       <c r="B73" s="1">
-        <v>0.216880341880342</v>
+        <v>0.225854700854701</v>
       </c>
       <c r="C73" s="1">
-        <v>0.210470085470085</v>
-      </c>
-      <c r="D73" s="1">
+        <v>0.202350427350427</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.262820512820513</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>0.181602842479274</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>0.263247863247863</v>
       </c>
     </row>

--- a/output/total_result.xlsx
+++ b/output/total_result.xlsx
@@ -260,14 +260,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,13 +738,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,126 +756,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3389,94 +3381,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.3772</c:v>
+                  <c:v>0.374133333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.247474747474747</c:v>
+                  <c:v>0.23030303030303</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.253535353535353</c:v>
+                  <c:v>0.270707070707071</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25050505050505</c:v>
+                  <c:v>0.245454545454545</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.162650602409639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.237373737373737</c:v>
+                  <c:v>0.187878787878788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.441880341880342</c:v>
+                  <c:v>0.424786324786325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.246464646464646</c:v>
+                  <c:v>0.302020202020202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.680793650793651</c:v>
+                  <c:v>0.695714285714286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.229292929292929</c:v>
+                  <c:v>0.297979797979798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.267307692307692</c:v>
+                  <c:v>0.256196581196581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.246464646464646</c:v>
+                  <c:v>0.304040404040404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72695652173913</c:v>
+                  <c:v>0.728695652173913</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25050505050505</c:v>
+                  <c:v>0.235353535353535</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3754</c:v>
+                  <c:v>0.293466666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.378066666666667</c:v>
+                  <c:v>0.269733333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.162650602409639</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3798</c:v>
+                  <c:v>0.373466666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.454700854700855</c:v>
+                  <c:v>0.407692307692308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3754</c:v>
+                  <c:v>0.3432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.679047619047619</c:v>
+                  <c:v>0.656349206349206</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.379133333333333</c:v>
+                  <c:v>0.379066666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.258974358974359</c:v>
+                  <c:v>0.32051282051282</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.378333333333333</c:v>
+                  <c:v>0.336533333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.730144927536232</c:v>
+                  <c:v>0.705507246376812</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.376933333333333</c:v>
+                  <c:v>0.291066666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3491,25 +3483,25 @@
                   <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.436752136752137</c:v>
+                  <c:v>0.307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.682063492063492</c:v>
+                  <c:v>0.547777777777778</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.265384615384615</c:v>
+                  <c:v>0.232692307692308</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.729855072463768</c:v>
+                  <c:v>0.582608695652174</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.642857142857143</c:v>
@@ -3521,88 +3513,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.446153846153846</c:v>
+                  <c:v>0.243589743589744</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.678730158730159</c:v>
+                  <c:v>0.424126984126984</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.263888888888889</c:v>
+                  <c:v>0.22991452991453</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.729855072463768</c:v>
+                  <c:v>0.454492753623188</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.455555555555556</c:v>
+                  <c:v>0.388034188034188</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.162650602409639</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.676190476190476</c:v>
+                  <c:v>0.683968253968254</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.162650602409639</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.267307692307692</c:v>
+                  <c:v>0.243589743589744</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.162650602409639</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.728115942028986</c:v>
+                  <c:v>0.730434782608696</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.162650602409639</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.677460317460317</c:v>
+                  <c:v>0.661269841269841</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.452136752136752</c:v>
+                  <c:v>0.458974358974359</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.266025641025641</c:v>
+                  <c:v>0.259188034188034</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.457264957264957</c:v>
+                  <c:v>0.347863247863248</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.728985507246377</c:v>
+                  <c:v>0.692173913043478</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.445299145299145</c:v>
+                  <c:v>0.388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.265384615384615</c:v>
+                  <c:v>0.274572649572649</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.678888888888889</c:v>
+                  <c:v>0.622222222222222</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.727826086956522</c:v>
+                  <c:v>0.715362318840579</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.679206349206349</c:v>
+                  <c:v>0.63984126984127</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.730434782608696</c:v>
+                  <c:v>0.711594202898551</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.263247863247863</c:v>
+                  <c:v>0.289102564102564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5668,8 +5660,8 @@
   <sheetPr/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5709,18 +5701,18 @@
       <c r="C2" s="1">
         <v>0.211066666666667</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.348</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.222823529411765</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.3772</v>
+      <c r="F2">
+        <v>0.374133333333333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
@@ -5729,14 +5721,14 @@
       <c r="C3" s="1">
         <v>0.16969696969697</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.210953346855984</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.247474747474747</v>
+      <c r="F3">
+        <v>0.23030303030303</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5749,13 +5741,13 @@
       <c r="C4" s="1">
         <v>0.235714285714286</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.285714285714286</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.183823529411765</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -5769,14 +5761,14 @@
       <c r="C5" s="1">
         <v>0.117171717171717</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.210953346855984</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.253535353535353</v>
+      <c r="F5">
+        <v>0.270707070707071</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5789,13 +5781,13 @@
       <c r="C6" s="1">
         <v>0.292012288786482</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.276497695852535</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.184631077864672</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -5809,14 +5801,14 @@
       <c r="C7" s="1">
         <v>0.168686868686869</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.272727272727272</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.202839756592292</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.25050505050505</v>
+      <c r="F7">
+        <v>0.245454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5829,13 +5821,13 @@
       <c r="C8" s="1">
         <v>0.153547523427042</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.419678714859438</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.244582043343653</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -5849,14 +5841,14 @@
       <c r="C9" s="1">
         <v>0.187878787878788</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.206896551724138</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.237373737373737</v>
+      <c r="F9">
+        <v>0.187878787878788</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5869,14 +5861,14 @@
       <c r="C10" s="1">
         <v>0.224786324786325</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.487179487179487</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.221719457013575</v>
       </c>
-      <c r="F10" s="2">
-        <v>0.441880341880342</v>
+      <c r="F10">
+        <v>0.424786324786325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5889,14 +5881,14 @@
       <c r="C11" s="1">
         <v>0.175757575757576</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.242424242424242</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.206896551724138</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.246464646464646</v>
+      <c r="F11">
+        <v>0.302020202020202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5909,14 +5901,14 @@
       <c r="C12" s="1">
         <v>0.202857142857143</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.576190476190476</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.219739819004525</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.680793650793651</v>
+      <c r="F12">
+        <v>0.695714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5929,14 +5921,14 @@
       <c r="C13" s="1">
         <v>0.218181818181818</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.333333333333333</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.212981744421907</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.229292929292929</v>
+      <c r="F13">
+        <v>0.297979797979798</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5949,14 +5941,14 @@
       <c r="C14" s="1">
         <v>0.217094017094017</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.282051282051282</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.207658902487169</v>
       </c>
-      <c r="F14" s="2">
-        <v>0.267307692307692</v>
+      <c r="F14">
+        <v>0.256196581196581</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5969,14 +5961,14 @@
       <c r="C15" s="1">
         <v>0.190909090909091</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.242424242424242</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.200811359026369</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.246464646464646</v>
+      <c r="F15">
+        <v>0.304040404040404</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5989,18 +5981,18 @@
       <c r="C16" s="1">
         <v>0.12</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.68695652173913</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.2852680895367</v>
       </c>
-      <c r="F16" s="2">
-        <v>0.72695652173913</v>
+      <c r="F16">
+        <v>0.728695652173913</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1">
@@ -6009,14 +6001,14 @@
       <c r="C17" s="1">
         <v>0.109090909090909</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.181818181818182</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.221095334685598</v>
       </c>
-      <c r="F17" s="2">
-        <v>0.25050505050505</v>
+      <c r="F17">
+        <v>0.235353535353535</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6029,13 +6021,13 @@
       <c r="C18" s="1">
         <v>0.233333333333333</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.196428571428571</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.176470588235294</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6049,14 +6041,14 @@
       <c r="C19" s="1">
         <v>0.133933333333333</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.36</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.229058823529412</v>
       </c>
-      <c r="F19" s="2">
-        <v>0.3754</v>
+      <c r="F19">
+        <v>0.293466666666667</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6069,13 +6061,13 @@
       <c r="C20" s="1">
         <v>0.273886328725038</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.248847926267281</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.154029241754505</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
@@ -6089,14 +6081,14 @@
       <c r="C21" s="1">
         <v>0.192866666666667</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.358</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.211058823529412</v>
       </c>
-      <c r="F21" s="2">
-        <v>0.378066666666667</v>
+      <c r="F21">
+        <v>0.269733333333333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6109,13 +6101,13 @@
       <c r="C22" s="1">
         <v>0.225903614457831</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.514056224899598</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.166068111455108</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6129,14 +6121,14 @@
       <c r="C23" s="1">
         <v>0.355333333333333</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.366</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.190823529411765</v>
       </c>
-      <c r="F23" s="2">
-        <v>0.3798</v>
+      <c r="F23">
+        <v>0.373466666666667</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6149,14 +6141,14 @@
       <c r="C24" s="1">
         <v>0.183760683760684</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.410256410256411</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.179487179487179</v>
       </c>
-      <c r="F24" s="2">
-        <v>0.454700854700855</v>
+      <c r="F24">
+        <v>0.407692307692308</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6169,14 +6161,14 @@
       <c r="C25" s="1">
         <v>0.207666666666667</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.368</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.2</v>
       </c>
-      <c r="F25" s="2">
-        <v>0.3754</v>
+      <c r="F25">
+        <v>0.3432</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6189,14 +6181,14 @@
       <c r="C26" s="1">
         <v>0.24968253968254</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.671428571428571</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.141968325791855</v>
       </c>
-      <c r="F26" s="2">
-        <v>0.679047619047619</v>
+      <c r="F26">
+        <v>0.656349206349206</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6209,14 +6201,14 @@
       <c r="C27" s="1">
         <v>0.3126</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.338</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.192</v>
       </c>
-      <c r="F27" s="2">
-        <v>0.379133333333333</v>
+      <c r="F27">
+        <v>0.379066666666667</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6229,14 +6221,14 @@
       <c r="C28" s="1">
         <v>0.185042735042735</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.294871794871795</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.183971575207264</v>
       </c>
-      <c r="F28" s="2">
-        <v>0.258974358974359</v>
+      <c r="F28">
+        <v>0.32051282051282</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6249,14 +6241,14 @@
       <c r="C29" s="1">
         <v>0.1456</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.382</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.204</v>
       </c>
-      <c r="F29" s="2">
-        <v>0.378333333333333</v>
+      <c r="F29">
+        <v>0.336533333333333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6269,14 +6261,14 @@
       <c r="C30" s="1">
         <v>0.274492753623188</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.695652173913043</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.197813638729828</v>
       </c>
-      <c r="F30" s="2">
-        <v>0.730144927536232</v>
+      <c r="F30">
+        <v>0.705507246376812</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6289,14 +6281,14 @@
       <c r="C31" s="1">
         <v>0.0991333333333333</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.356</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.190823529411765</v>
       </c>
-      <c r="F31" s="2">
-        <v>0.376933333333333</v>
+      <c r="F31">
+        <v>0.291066666666667</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6309,18 +6301,18 @@
       <c r="C32" s="1">
         <v>0.29615975422427</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.248847926267281</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.155049302958178</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1">
@@ -6329,13 +6321,13 @@
       <c r="C33" s="1">
         <v>0.216071428571429</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.160714285714286</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.178571428571429</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6349,13 +6341,13 @@
       <c r="C34" s="1">
         <v>0.136412315930388</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.506024096385542</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.21312693498452</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6369,13 +6361,13 @@
       <c r="C35" s="1">
         <v>0.176190476190476</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0.178571428571428</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0.176470588235294</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6389,14 +6381,14 @@
       <c r="C36" s="1">
         <v>0.21025641025641</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>0.435897435897436</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>0.196078431372549</v>
       </c>
-      <c r="F36" s="2">
-        <v>0.436752136752137</v>
+      <c r="F36">
+        <v>0.307692307692308</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6409,13 +6401,13 @@
       <c r="C37" s="1">
         <v>0.261904761904762</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>0.232142857142857</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0.180672268907563</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6429,18 +6421,18 @@
       <c r="C38" s="1">
         <v>0.125079365079365</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>0.7</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>0.242364253393665</v>
       </c>
-      <c r="F38" s="2">
-        <v>0.682063492063492</v>
+      <c r="F38">
+        <v>0.547777777777778</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1">
@@ -6449,13 +6441,13 @@
       <c r="C39" s="1">
         <v>0.217857142857143</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>0.196428571428571</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0.175420168067227</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6469,14 +6461,14 @@
       <c r="C40" s="1">
         <v>0.184615384615385</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>0.294871794871795</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>0.203711014607185</v>
       </c>
-      <c r="F40" s="2">
-        <v>0.265384615384615</v>
+      <c r="F40">
+        <v>0.232692307692308</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6489,18 +6481,18 @@
       <c r="C41" s="1">
         <v>0.178571428571428</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>0.196428571428571</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.17436974789916</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>0.642857142857143</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="1">
@@ -6509,14 +6501,14 @@
       <c r="C42" s="1">
         <v>0.196521739130435</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>0.747826086956522</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>0.244664237376367</v>
       </c>
-      <c r="F42" s="2">
-        <v>0.729855072463768</v>
+      <c r="F42">
+        <v>0.582608695652174</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6529,13 +6521,13 @@
       <c r="C43" s="1">
         <v>0.298809523809524</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>0.214285714285714</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>0.177521008403361</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>0.642857142857143</v>
       </c>
     </row>
@@ -6549,13 +6541,13 @@
       <c r="C44" s="1">
         <v>0.139223560910308</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>0.483935742971887</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>0.187739938080495</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6569,13 +6561,13 @@
       <c r="C45" s="1">
         <v>0.325806451612903</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>0.285714285714286</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0.152329139748385</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>0</v>
       </c>
     </row>
@@ -6589,14 +6581,14 @@
       <c r="C46" s="1">
         <v>0.173504273504273</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>0.564102564102564</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>0.191553544494721</v>
       </c>
-      <c r="F46" s="2">
-        <v>0.446153846153846</v>
+      <c r="F46">
+        <v>0.243589743589744</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6609,13 +6601,13 @@
       <c r="C47" s="1">
         <v>0.280645161290323</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>0.271889400921659</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>0.161849710982659</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>0</v>
       </c>
     </row>
@@ -6629,14 +6621,14 @@
       <c r="C48" s="1">
         <v>0.203492063492064</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>0.642857142857143</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>0.166855203619909</v>
       </c>
-      <c r="F48" s="2">
-        <v>0.678730158730159</v>
+      <c r="F48">
+        <v>0.424126984126984</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6649,18 +6641,18 @@
       <c r="C49" s="1">
         <v>0.278955453149002</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>0.271889400921659</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>0.15028901734104</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="1">
@@ -6669,18 +6661,18 @@
       <c r="C50" s="1">
         <v>0.205128205128205</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>0.294871794871795</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>0.191077773391236</v>
       </c>
-      <c r="F50" s="2">
-        <v>0.263888888888889</v>
+      <c r="F50">
+        <v>0.22991452991453</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1">
@@ -6689,13 +6681,13 @@
       <c r="C51" s="1">
         <v>0.307066052227343</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>0.230414746543779</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0.161509690581435</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>0</v>
       </c>
     </row>
@@ -6709,14 +6701,14 @@
       <c r="C52" s="1">
         <v>0.414492753623188</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>0.713043478260869</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>0.21186881832379</v>
       </c>
-      <c r="F52" s="2">
-        <v>0.729855072463768</v>
+      <c r="F52">
+        <v>0.454492753623188</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6729,13 +6721,13 @@
       <c r="C53" s="1">
         <v>0.243932411674347</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>0.285714285714286</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>0.154029241754505</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>0</v>
       </c>
     </row>
@@ -6749,14 +6741,14 @@
       <c r="C54" s="1">
         <v>0.44017094017094</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>0.384615384615385</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>0.176470588235294</v>
       </c>
-      <c r="F54" s="2">
-        <v>0.455555555555556</v>
+      <c r="F54">
+        <v>0.388034188034188</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6769,13 +6761,13 @@
       <c r="C55" s="1">
         <v>0.138821954484605</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.528112449799197</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>0.177213622291022</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6789,14 +6781,14 @@
       <c r="C56" s="1">
         <v>0.603809523809524</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>0.69047619047619</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>0.137443438914027</v>
       </c>
-      <c r="F56" s="2">
-        <v>0.676190476190476</v>
+      <c r="F56">
+        <v>0.683968253968254</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6809,13 +6801,13 @@
       <c r="C57" s="1">
         <v>0.45281124497992</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>0.485943775100402</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>0.164582043343653</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6829,18 +6821,18 @@
       <c r="C58" s="1">
         <v>0.272863247863248</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>0.269230769230769</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>0.18002368732728</v>
       </c>
-      <c r="F58" s="2">
-        <v>0.267307692307692</v>
+      <c r="F58">
+        <v>0.243589743589744</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="1">
@@ -6849,13 +6841,13 @@
       <c r="C59" s="1">
         <v>0.117536813922356</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>0.534136546184739</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>0.192941176470588</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6869,14 +6861,14 @@
       <c r="C60" s="1">
         <v>0.735652173913043</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>0.721739130434783</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>0.186361270171785</v>
       </c>
-      <c r="F60" s="2">
-        <v>0.728115942028986</v>
+      <c r="F60">
+        <v>0.730434782608696</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6889,13 +6881,13 @@
       <c r="C61" s="1">
         <v>0.185542168674699</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>0.532128514056225</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>0.167430340557275</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>0.162650602409639</v>
       </c>
     </row>
@@ -6909,14 +6901,14 @@
       <c r="C62" s="1">
         <v>0.125238095238095</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>0.633333333333333</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>0.143382352941176</v>
       </c>
-      <c r="F62" s="2">
-        <v>0.677460317460317</v>
+      <c r="F62">
+        <v>0.661269841269841</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6929,14 +6921,14 @@
       <c r="C63" s="1">
         <v>0.382905982905983</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>0.333333333333333</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>0.176470588235294</v>
       </c>
-      <c r="F63" s="2">
-        <v>0.452136752136752</v>
+      <c r="F63">
+        <v>0.458974358974359</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6949,14 +6941,14 @@
       <c r="C64" s="1">
         <v>0.221794871794872</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>0.282051282051282</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>0.182392420055271</v>
       </c>
-      <c r="F64" s="2">
-        <v>0.266025641025641</v>
+      <c r="F64">
+        <v>0.259188034188034</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6969,14 +6961,14 @@
       <c r="C65" s="1">
         <v>0.112820512820513</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>0.461538461538462</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>0.187028657616893</v>
       </c>
-      <c r="F65" s="2">
-        <v>0.457264957264957</v>
+      <c r="F65">
+        <v>0.347863247863248</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6989,14 +6981,14 @@
       <c r="C66" s="1">
         <v>0.109565217391304</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>0.739130434782609</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>0.194169703279542</v>
       </c>
-      <c r="F66" s="2">
-        <v>0.728985507246377</v>
+      <c r="F66">
+        <v>0.692173913043478</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7009,14 +7001,14 @@
       <c r="C67" s="1">
         <v>0.188034188034188</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>0.487179487179487</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>0.173453996983409</v>
       </c>
-      <c r="F67" s="2">
-        <v>0.445299145299145</v>
+      <c r="F67">
+        <v>0.388888888888889</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7029,14 +7021,14 @@
       <c r="C68" s="1">
         <v>0.267307692307692</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>0.243589743589744</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>0.180418476115278</v>
       </c>
-      <c r="F68" s="2">
-        <v>0.265384615384615</v>
+      <c r="F68">
+        <v>0.274572649572649</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7049,14 +7041,14 @@
       <c r="C69" s="1">
         <v>0.131904761904762</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>0.671428571428571</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>0.154977375565611</v>
       </c>
-      <c r="F69" s="2">
-        <v>0.678888888888889</v>
+      <c r="F69">
+        <v>0.622222222222222</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7069,14 +7061,14 @@
       <c r="C70" s="1">
         <v>0.368405797101449</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>0.660869565217391</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>0.186881832378969</v>
       </c>
-      <c r="F70" s="2">
-        <v>0.727826086956522</v>
+      <c r="F70">
+        <v>0.715362318840579</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7089,14 +7081,14 @@
       <c r="C71" s="1">
         <v>0.113174603174603</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0.709523809523809</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>0.142533936651584</v>
       </c>
-      <c r="F71" s="2">
-        <v>0.679206349206349</v>
+      <c r="F71">
+        <v>0.63984126984127</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7109,14 +7101,14 @@
       <c r="C72" s="1">
         <v>0.163768115942029</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>0.730434782608696</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>0.223841749089016</v>
       </c>
-      <c r="F72" s="2">
-        <v>0.730434782608696</v>
+      <c r="F72">
+        <v>0.711594202898551</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7129,14 +7121,14 @@
       <c r="C73" s="1">
         <v>0.202350427350427</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>0.262820512820513</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0.181602842479274</v>
       </c>
-      <c r="F73" s="2">
-        <v>0.263247863247863</v>
+      <c r="F73">
+        <v>0.289102564102564</v>
       </c>
     </row>
   </sheetData>

--- a/output/total_result.xlsx
+++ b/output/total_result.xlsx
@@ -31,7 +31,7 @@
     <t>论文代码</t>
   </si>
   <si>
-    <t>DPNN</t>
+    <t>dpnn</t>
   </si>
   <si>
     <t>ant-1.3-&gt;camel-1.6</t>
@@ -3353,7 +3353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DPNN</c:v>
+                  <c:v>dpnn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5661,7 +5661,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F73"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/output/total_result.xlsx
+++ b/output/total_result.xlsx
@@ -19,16 +19,16 @@
     <t>pofb作为评价指标</t>
   </si>
   <si>
-    <t>随机森林</t>
-  </si>
-  <si>
-    <t>决策树</t>
+    <t>random_tree</t>
+  </si>
+  <si>
+    <t>decision_tree</t>
   </si>
   <si>
     <t>svr</t>
   </si>
   <si>
-    <t>论文代码</t>
+    <t>ours</t>
   </si>
   <si>
     <t>dpnn</t>
@@ -963,7 +963,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>随机森林</c:v>
+                  <c:v>random_tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1239,7 +1239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>决策树</c:v>
+                  <c:v>decision_tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1791,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>论文代码</c:v>
+                  <c:v>ours</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2322,7 +2322,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>随机森林</c:v>
+                  <c:v>random_tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2580,7 +2580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>决策树</c:v>
+                  <c:v>decision_tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3096,7 +3096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>论文代码</c:v>
+                  <c:v>ours</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5660,8 +5660,8 @@
   <sheetPr/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
